--- a/biology/Botanique/Afrothismia_amietii/Afrothismia_amietii.xlsx
+++ b/biology/Botanique/Afrothismia_amietii/Afrothismia_amietii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrothismia amietii est une espèce de plantes de la famille des Burmanniaceae et du genre Afrothismia. C'est une plante endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrothismia amietii est une espèce de plantes de la famille des Burmanniaceae et du genre Afrothismia. C'est une plante endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique rend hommage à Jean-Louis Amiet, qui fut professeur à l'université de Yaoundé.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite herbe achlorophyllienne pouvant atteindre 3 cm de longueur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite herbe achlorophyllienne pouvant atteindre 3 cm de longueur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle n'a d'abord été observée qu'au mont Kala, dans la région du Centre, par une équipe de botanistes venus observer la végétation de l'habitat d'un oiseau rare, le Picatharte du Cameroun[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle n'a d'abord été observée qu'au mont Kala, dans la région du Centre, par une équipe de botanistes venus observer la végétation de l'habitat d'un oiseau rare, le Picatharte du Cameroun.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est celui de la forêt tropicale submontagnarde, à une altitude d'environ 850 m[4]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est celui de la forêt tropicale submontagnarde, à une altitude d'environ 850 m. 
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exploitation forestière illégale et l'agriculture en font une espèce en danger critique d'extinction (CR)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exploitation forestière illégale et l'agriculture en font une espèce en danger critique d'extinction (CR).
 </t>
         </is>
       </c>
